--- a/Code/Results/Cases/Case_2_127/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_127/res_bus/vm_pu.xlsx
@@ -418,13 +418,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -432,13 +432,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057851</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474069</v>
+        <v>0.9963617723202692</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -446,13 +446,13 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088614</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952758</v>
+        <v>0.9968940712668345</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.997117960005301</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9971555583673453</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -488,13 +488,13 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691358</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.970642461629057</v>
+        <v>0.9968970624462087</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411972</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -572,13 +572,13 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9919494934313052</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>0.9920921077337197</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.933278105073729</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782936</v>
+        <v>0.9921799884222134</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,13 +614,13 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -628,13 +628,13 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773699352</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -642,13 +642,13 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071769</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9932640239640975</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,13 +670,13 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494216</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -684,13 +684,13 @@
         <v>19</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668253</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981065</v>
+        <v>0.9920501090198105</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>0.9914670000341481</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963313</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>0.991776070289318</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -726,13 +726,13 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011831</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442547</v>
+        <v>0.9929938892766442</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718015</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.959875449400583</v>
+        <v>0.9944092447426414</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_127/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_127/res_bus/vm_pu.xlsx
@@ -418,13 +418,13 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -432,13 +432,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474064</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -446,13 +446,13 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952756</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -460,13 +460,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -474,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -488,13 +488,13 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.970642461629057</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -502,13 +502,13 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.966070643453771</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -516,13 +516,13 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834081</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -530,13 +530,13 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689358</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -544,13 +544,13 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416574</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411972</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252507</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -572,13 +572,13 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -586,13 +586,13 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764519</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -600,13 +600,13 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737293</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782937</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -614,13 +614,13 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017259</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -628,13 +628,13 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855665</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068049</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -642,13 +642,13 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.939383286721568</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.9543373515865724</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -656,13 +656,13 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816588</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -670,13 +670,13 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.9380716924660142</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494216</v>
+        <v>0.9532985019057446</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -684,13 +684,13 @@
         <v>19</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668253</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198105</v>
+        <v>0.9488714019981065</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -698,13 +698,13 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651167</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572521</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -712,13 +712,13 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963313</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285318</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -726,13 +726,13 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011823</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.9533716596442542</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -740,13 +740,13 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
     </row>
   </sheetData>
